--- a/GameDesign/데이터 테이블/GachaTable.xlsx
+++ b/GameDesign/데이터 테이블/GachaTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Project\Team_Pearl\GameDesign\데이터 테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seok6704/Documents/GitHub/Team_Pearl/GameDesign/데이터 테이블/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{448E3B0B-A9D1-4878-A5DE-6A6FF0E49159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227B4CBB-A85C-1247-9C2C-6F73C5E1D5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6C65DFCD-58DB-4FD8-9A83-FDED83EB9C6C}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="19820" xr2:uid="{6C65DFCD-58DB-4FD8-9A83-FDED83EB9C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,47 +54,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4</t>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epic2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -565,15 +565,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="18" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -615,7 +615,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -629,7 +629,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -643,7 +643,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -657,7 +657,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -671,7 +671,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -685,7 +685,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -699,7 +699,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -713,7 +713,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -727,7 +727,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
